--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,88 +49,85 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -496,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -557,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4656084656084656</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3720930232558139</v>
+        <v>0.3430232558139535</v>
       </c>
       <c r="C5">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D5">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,95 +672,71 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L5">
+        <v>110</v>
+      </c>
+      <c r="M5">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.8913043478260869</v>
-      </c>
-      <c r="L5">
-        <v>41</v>
-      </c>
-      <c r="M5">
-        <v>41</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.1812080536912752</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>122</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L6">
+        <v>96</v>
+      </c>
+      <c r="M6">
+        <v>96</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>16</v>
-      </c>
-      <c r="K6">
-        <v>0.875</v>
-      </c>
-      <c r="L6">
-        <v>98</v>
-      </c>
-      <c r="M6">
-        <v>98</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8490566037735849</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,21 +748,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8448275862068966</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,21 +774,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8302872062663186</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>318</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,21 +800,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,21 +826,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7916666666666666</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,47 +852,47 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L12">
+        <v>84</v>
+      </c>
+      <c r="M12">
+        <v>84</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>22</v>
-      </c>
-      <c r="K12">
-        <v>0.7887323943661971</v>
-      </c>
-      <c r="L12">
-        <v>112</v>
-      </c>
-      <c r="M12">
-        <v>112</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,21 +904,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7578125</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,21 +930,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,21 +956,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,21 +982,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.75625</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,21 +1008,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6984126984126984</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6976744186046512</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,21 +1060,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6352941176470588</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,21 +1112,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5846153846153846</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,21 +1138,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5732217573221757</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L23">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M23">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5491525423728814</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L24">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,47 +1190,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>133</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.5428571428571428</v>
+        <v>0.5544217687074829</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>32</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5212765957446809</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L27">
         <v>37</v>
       </c>
-      <c r="K27">
-        <v>0.4382022471910113</v>
-      </c>
-      <c r="L27">
-        <v>39</v>
-      </c>
       <c r="M27">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.358974358974359</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
